--- a/tests/testthat/test_data/12/allWellIds.xlsx
+++ b/tests/testthat/test_data/12/allWellIds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd4290b48d2b34c4/Documents/testing_tidyplate/test_data/12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6529F5-6B5B-4FCC-96D7-95A4010ED4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5198B31-1A07-174A-AD91-689E6132C574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allWellIds" sheetId="1" r:id="rId1"/>
@@ -28,55 +28,62 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -509,50 +516,51 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -907,14 +915,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,54 +941,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
